--- a/Asset/Rosa Squadra.xlsx
+++ b/Asset/Rosa Squadra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsan\Desktop\Torneo COFTA\COFTAMI\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FB65BC-564F-40A2-AF78-7FFA6A5A1CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D135E6F3-5C6C-45F1-8890-01C8024E0AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CEDC5FDA-0F8B-40BF-9828-A5DD475C3449}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -186,12 +183,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +193,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +540,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,34 +561,34 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:27" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="AA4" t="s">
         <v>7</v>
       </c>
@@ -596,229 +596,229 @@
     <row r="5" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
       <c r="AA5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="21" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
